--- a/Tools/bin/GeneratorCSV/xls_config/_CommonData.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/_CommonData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>c</t>
   </si>
@@ -25,170 +25,146 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时无用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int公用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64公用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double公用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string公用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date公用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolCommon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intCommon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64Common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleCommon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringCommon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateCommon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoolTest = 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntTest=2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringTest =adfadf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTest=2016-3-28-3:15:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleTest =1221.123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64Test =1231231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int2Test=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int3Test=4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int642Test =1231232</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int643Test =1231233</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double2Test =1221.124</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double3Test =1221.125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string2Test =adfadf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string3Test =adfadf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date2Test=2016-3-28-3:15:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date3Test=2016-3-28-3:15:12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时无用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int公用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64公用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>double公用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string公用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>date公用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolCommon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>intCommon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64Common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doubleCommon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringCommon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateCommon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoolTest = 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntTest=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringTest =adfadf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTest=2016-3-28-3:15:10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doubleTest =1221.123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64Test =1231231</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoolTest2 = 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoolTest3 = 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int2Test=3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int3Test=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int642Test =1231232</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int643Test =1231233</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>double2Test =1221.124</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>double3Test =1221.125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string2Test =adfadf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string3Test =adfadf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>date2Test=2016-3-28-3:15:11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>date3Test=2016-3-28-3:15:12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,14 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool公用值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,6 +194,46 @@
   </si>
   <si>
     <t>BoolTest6 = 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string , bool&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string , date&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string ,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string , double&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string , int64&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string , int&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoolTest2 = 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoolTest3 = 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolCommon2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +628,7 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,37 +638,37 @@
     <col min="5" max="5" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -668,54 +676,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -723,260 +734,260 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/bin/GeneratorCSV/xls_config/_CommonData.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/_CommonData.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
-  <si>
-    <t>c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,10 +31,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -234,6 +227,10 @@
   </si>
   <si>
     <t>boolCommon2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,350 +641,350 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E151" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E154" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E155" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
